--- a/expense.xlsx
+++ b/expense.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,352 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Expense ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Category ID</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Expense Date</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Expense</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Total Amount</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Notes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2023-06-23 14:30:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Lunch</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Delicious meal</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2023-06-24 08:00:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Bus fare</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Daily commute</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2023-06-24 12:30:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Dinner</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Business dinner</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2023-06-25 10:00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Office Supplies</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bought pens and papers</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2023-06-25 18:00:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Taxi</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Trip to airport</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2023-06-26 09:00:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Train ticket</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>45.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Business trip to city</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2023-06-26 14:00:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1200.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>New work laptop</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2023-06-27 13:00:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Coffee</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Afternoon break</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2023-06-27 19:00:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Uber</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>18.50</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Ride home</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2023-06-28 07:30:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Subway</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Morning commute</t>
         </is>
       </c>
     </row>
